--- a/Tests/Test7/Conception test7.xlsx
+++ b/Tests/Test7/Conception test7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxen\Desktop\Ressources INSA\3ème année\POO C++\TP-cpp\Tests\Test7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A5145A9-0779-4C74-A4A6-0E6CA051C8A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218A8FC8-D9C9-4BA9-AE57-8C705E5EF0CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3756" yWindow="2544" windowWidth="17280" windowHeight="8964" xr2:uid="{720B3232-B83F-4442-B9D2-CD0F28A45938}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{720B3232-B83F-4442-B9D2-CD0F28A45938}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>Target</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>/temps/3IF44.html</t>
+  </si>
+  <si>
+    <t>/SiteWebIF/Intranet-etudiant.php</t>
+  </si>
+  <si>
+    <t>/stages/Listestage.php</t>
   </si>
 </sst>
 </file>
@@ -433,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE48587-7943-4DC2-B530-BCAC715CA837}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,6 +579,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
